--- a/src/output/results3.xlsx
+++ b/src/output/results3.xlsx
@@ -346,311 +346,311 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>5018.0</v>
+        <v>2909.0</v>
       </c>
       <c r="B1" t="n">
-        <v>1258.0</v>
+        <v>1164.0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5263.0</v>
+        <v>3673.0</v>
       </c>
       <c r="B2" t="n">
-        <v>1225.0</v>
+        <v>1060.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4592.0</v>
+        <v>3400.0</v>
       </c>
       <c r="B3" t="n">
-        <v>1427.0</v>
+        <v>1137.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4036.0</v>
+        <v>3005.0</v>
       </c>
       <c r="B4" t="n">
-        <v>1892.0</v>
+        <v>1271.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3699.0</v>
+        <v>2970.0</v>
       </c>
       <c r="B5" t="n">
-        <v>2098.0</v>
+        <v>1391.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3489.0</v>
+        <v>3569.0</v>
       </c>
       <c r="B6" t="n">
-        <v>1828.0</v>
+        <v>1329.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3305.0</v>
+        <v>3259.0</v>
       </c>
       <c r="B7" t="n">
-        <v>1628.0</v>
+        <v>1187.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3177.0</v>
+        <v>2495.0</v>
       </c>
       <c r="B8" t="n">
-        <v>1558.0</v>
+        <v>1168.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2957.0</v>
+        <v>2457.0</v>
       </c>
       <c r="B9" t="n">
-        <v>1453.0</v>
+        <v>1214.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2855.0</v>
+        <v>2476.0</v>
       </c>
       <c r="B10" t="n">
-        <v>1431.0</v>
+        <v>1242.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2922.0</v>
+        <v>2438.0</v>
       </c>
       <c r="B11" t="n">
-        <v>1386.0</v>
+        <v>1077.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2934.0</v>
+        <v>2348.0</v>
       </c>
       <c r="B12" t="n">
-        <v>1358.0</v>
+        <v>1059.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2774.0</v>
+        <v>2842.0</v>
       </c>
       <c r="B13" t="n">
-        <v>1302.0</v>
+        <v>995.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2744.0</v>
+        <v>2791.0</v>
       </c>
       <c r="B14" t="n">
-        <v>1227.0</v>
+        <v>1018.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2680.0</v>
+        <v>2316.0</v>
       </c>
       <c r="B15" t="n">
-        <v>1228.0</v>
+        <v>996.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2594.0</v>
+        <v>2291.0</v>
       </c>
       <c r="B16" t="n">
-        <v>1168.0</v>
+        <v>1056.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2750.0</v>
+        <v>2270.0</v>
       </c>
       <c r="B17" t="n">
-        <v>1196.0</v>
+        <v>1009.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2666.0</v>
+        <v>2356.0</v>
       </c>
       <c r="B18" t="n">
-        <v>1157.0</v>
+        <v>929.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2585.0</v>
+        <v>2357.0</v>
       </c>
       <c r="B19" t="n">
-        <v>1176.0</v>
+        <v>877.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2665.0</v>
+        <v>2678.0</v>
       </c>
       <c r="B20" t="n">
-        <v>1104.0</v>
+        <v>953.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2693.0</v>
+        <v>2634.0</v>
       </c>
       <c r="B21" t="n">
-        <v>1141.0</v>
+        <v>927.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2695.0</v>
+        <v>2269.0</v>
       </c>
       <c r="B22" t="n">
-        <v>1082.0</v>
+        <v>942.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2553.0</v>
+        <v>2196.0</v>
       </c>
       <c r="B23" t="n">
-        <v>1118.0</v>
+        <v>999.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2575.0</v>
+        <v>2225.0</v>
       </c>
       <c r="B24" t="n">
-        <v>1106.0</v>
+        <v>997.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2631.0</v>
+        <v>2253.0</v>
       </c>
       <c r="B25" t="n">
-        <v>1176.0</v>
+        <v>896.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2599.0</v>
+        <v>2267.0</v>
       </c>
       <c r="B26" t="n">
-        <v>1078.0</v>
+        <v>911.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2630.0</v>
+        <v>2776.0</v>
       </c>
       <c r="B27" t="n">
-        <v>1098.0</v>
+        <v>943.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2465.0</v>
+        <v>2661.0</v>
       </c>
       <c r="B28" t="n">
-        <v>1103.0</v>
+        <v>907.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2549.0</v>
+        <v>2319.0</v>
       </c>
       <c r="B29" t="n">
-        <v>1096.0</v>
+        <v>960.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2542.0</v>
+        <v>2357.0</v>
       </c>
       <c r="B30" t="n">
-        <v>1155.0</v>
+        <v>1004.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2453.0</v>
+        <v>2217.0</v>
       </c>
       <c r="B31" t="n">
-        <v>1058.0</v>
+        <v>1001.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3211.0</v>
+        <v>3176.0</v>
       </c>
       <c r="B32" t="n">
-        <v>1081.0</v>
+        <v>945.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3284.0</v>
+        <v>3235.0</v>
       </c>
       <c r="B33" t="n">
-        <v>1041.0</v>
+        <v>1009.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3019.0</v>
+        <v>3369.0</v>
       </c>
       <c r="B34" t="n">
-        <v>1101.0</v>
+        <v>1083.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3208.0</v>
+        <v>3258.0</v>
       </c>
       <c r="B35" t="n">
-        <v>1352.0</v>
+        <v>1238.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4297.0</v>
+        <v>4496.0</v>
       </c>
       <c r="B36" t="n">
-        <v>1359.0</v>
+        <v>1218.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4080.0</v>
+        <v>4275.0</v>
       </c>
       <c r="B37" t="n">
-        <v>1318.0</v>
+        <v>1349.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4674.0</v>
+        <v>4952.0</v>
       </c>
       <c r="B38" t="n">
-        <v>1554.0</v>
+        <v>1535.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5290.0</v>
+        <v>5690.0</v>
       </c>
       <c r="B39" t="n">
         <v>1735.0</v>
@@ -658,2335 +658,2335 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5821.0</v>
+        <v>6099.0</v>
       </c>
       <c r="B40" t="n">
-        <v>1929.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5369.0</v>
+        <v>6477.0</v>
       </c>
       <c r="B41" t="n">
-        <v>2062.0</v>
+        <v>2189.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4936.0</v>
+        <v>6486.0</v>
       </c>
       <c r="B42" t="n">
-        <v>2339.0</v>
+        <v>2504.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>7174.0</v>
+        <v>7759.0</v>
       </c>
       <c r="B43" t="n">
-        <v>2459.0</v>
+        <v>2710.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>6642.0</v>
+        <v>7089.0</v>
       </c>
       <c r="B44" t="n">
-        <v>2416.0</v>
+        <v>2690.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>7167.0</v>
+        <v>7901.0</v>
       </c>
       <c r="B45" t="n">
-        <v>2667.0</v>
+        <v>2943.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>7975.0</v>
+        <v>8709.0</v>
       </c>
       <c r="B46" t="n">
-        <v>2904.0</v>
+        <v>3146.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>8485.0</v>
+        <v>9250.0</v>
       </c>
       <c r="B47" t="n">
-        <v>3035.0</v>
+        <v>3379.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>7761.0</v>
+        <v>9678.0</v>
       </c>
       <c r="B48" t="n">
-        <v>3256.0</v>
+        <v>3606.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>7124.0</v>
+        <v>10139.0</v>
       </c>
       <c r="B49" t="n">
-        <v>3538.0</v>
+        <v>3853.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>10081.0</v>
+        <v>10821.0</v>
       </c>
       <c r="B50" t="n">
-        <v>3585.0</v>
+        <v>4018.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>9143.0</v>
+        <v>10030.0</v>
       </c>
       <c r="B51" t="n">
-        <v>3555.0</v>
+        <v>4125.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>9689.0</v>
+        <v>10966.0</v>
       </c>
       <c r="B52" t="n">
-        <v>3727.0</v>
+        <v>4392.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>10580.0</v>
+        <v>11971.0</v>
       </c>
       <c r="B53" t="n">
-        <v>4057.0</v>
+        <v>4616.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>11256.0</v>
+        <v>12501.0</v>
       </c>
       <c r="B54" t="n">
-        <v>4243.0</v>
+        <v>4647.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>9993.0</v>
+        <v>13402.0</v>
       </c>
       <c r="B55" t="n">
-        <v>4343.0</v>
+        <v>5022.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>9219.0</v>
+        <v>13733.0</v>
       </c>
       <c r="B56" t="n">
-        <v>4772.0</v>
+        <v>5388.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>13083.0</v>
+        <v>14379.0</v>
       </c>
       <c r="B57" t="n">
-        <v>5062.0</v>
+        <v>5531.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>11209.0</v>
+        <v>13107.0</v>
       </c>
       <c r="B58" t="n">
-        <v>4564.0</v>
+        <v>5633.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>12250.0</v>
+        <v>14093.0</v>
       </c>
       <c r="B59" t="n">
-        <v>4848.0</v>
+        <v>5962.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>13126.0</v>
+        <v>15099.0</v>
       </c>
       <c r="B60" t="n">
-        <v>5332.0</v>
+        <v>6113.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>13671.0</v>
+        <v>15762.0</v>
       </c>
       <c r="B61" t="n">
-        <v>5260.0</v>
+        <v>6277.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>12159.0</v>
+        <v>16780.0</v>
       </c>
       <c r="B62" t="n">
-        <v>5407.0</v>
+        <v>6515.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>11136.0</v>
+        <v>17277.0</v>
       </c>
       <c r="B63" t="n">
-        <v>6064.0</v>
+        <v>6856.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>15337.0</v>
+        <v>17375.0</v>
       </c>
       <c r="B64" t="n">
-        <v>6087.0</v>
+        <v>7004.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>13717.0</v>
+        <v>16016.0</v>
       </c>
       <c r="B65" t="n">
-        <v>5750.0</v>
+        <v>7088.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>14188.0</v>
+        <v>16858.0</v>
       </c>
       <c r="B66" t="n">
-        <v>5855.0</v>
+        <v>7619.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>15447.0</v>
+        <v>17759.0</v>
       </c>
       <c r="B67" t="n">
-        <v>6239.0</v>
+        <v>7549.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>16067.0</v>
+        <v>18662.0</v>
       </c>
       <c r="B68" t="n">
-        <v>6310.0</v>
+        <v>7514.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>13590.0</v>
+        <v>19704.0</v>
       </c>
       <c r="B69" t="n">
-        <v>6506.0</v>
+        <v>7742.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>12782.0</v>
+        <v>20248.0</v>
       </c>
       <c r="B70" t="n">
-        <v>7063.0</v>
+        <v>8064.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>17710.0</v>
+        <v>19576.0</v>
       </c>
       <c r="B71" t="n">
-        <v>7022.0</v>
+        <v>8360.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>15205.0</v>
+        <v>17739.0</v>
       </c>
       <c r="B72" t="n">
-        <v>6616.0</v>
+        <v>8312.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>15852.0</v>
+        <v>18650.0</v>
       </c>
       <c r="B73" t="n">
-        <v>6727.0</v>
+        <v>8463.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>16899.0</v>
+        <v>19683.0</v>
       </c>
       <c r="B74" t="n">
-        <v>7292.0</v>
+        <v>8452.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>17518.0</v>
+        <v>20036.0</v>
       </c>
       <c r="B75" t="n">
-        <v>6945.0</v>
+        <v>8370.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>15048.0</v>
+        <v>21549.0</v>
       </c>
       <c r="B76" t="n">
-        <v>7090.0</v>
+        <v>8509.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>13623.0</v>
+        <v>21696.0</v>
       </c>
       <c r="B77" t="n">
-        <v>7766.0</v>
+        <v>8606.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>18612.0</v>
+        <v>21146.0</v>
       </c>
       <c r="B78" t="n">
-        <v>7788.0</v>
+        <v>8880.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>16358.0</v>
+        <v>18925.0</v>
       </c>
       <c r="B79" t="n">
-        <v>7090.0</v>
+        <v>8957.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>16523.0</v>
+        <v>19732.0</v>
       </c>
       <c r="B80" t="n">
-        <v>7109.0</v>
+        <v>9155.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>17438.0</v>
+        <v>20504.0</v>
       </c>
       <c r="B81" t="n">
-        <v>7707.0</v>
+        <v>9076.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>17800.0</v>
+        <v>20731.0</v>
       </c>
       <c r="B82" t="n">
-        <v>7465.0</v>
+        <v>8726.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>15297.0</v>
+        <v>22115.0</v>
       </c>
       <c r="B83" t="n">
-        <v>7349.0</v>
+        <v>9097.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>13694.0</v>
+        <v>22189.0</v>
       </c>
       <c r="B84" t="n">
-        <v>7937.0</v>
+        <v>9075.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>18633.0</v>
+        <v>21227.0</v>
       </c>
       <c r="B85" t="n">
-        <v>8072.0</v>
+        <v>9119.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>16218.0</v>
+        <v>19158.0</v>
       </c>
       <c r="B86" t="n">
-        <v>7372.0</v>
+        <v>9275.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>16429.0</v>
+        <v>19449.0</v>
       </c>
       <c r="B87" t="n">
-        <v>7333.0</v>
+        <v>9470.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>17291.0</v>
+        <v>19999.0</v>
       </c>
       <c r="B88" t="n">
-        <v>7738.0</v>
+        <v>8906.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>17487.0</v>
+        <v>20151.0</v>
       </c>
       <c r="B89" t="n">
-        <v>7429.0</v>
+        <v>8876.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>14893.0</v>
+        <v>21536.0</v>
       </c>
       <c r="B90" t="n">
-        <v>7258.0</v>
+        <v>8759.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>13451.0</v>
+        <v>21599.0</v>
       </c>
       <c r="B91" t="n">
-        <v>7635.0</v>
+        <v>9027.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>18110.0</v>
+        <v>20523.0</v>
       </c>
       <c r="B92" t="n">
-        <v>7928.0</v>
+        <v>8964.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>16048.0</v>
+        <v>18085.0</v>
       </c>
       <c r="B93" t="n">
-        <v>7251.0</v>
+        <v>8951.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>16216.0</v>
+        <v>18762.0</v>
       </c>
       <c r="B94" t="n">
-        <v>7307.0</v>
+        <v>9060.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>16834.0</v>
+        <v>19259.0</v>
       </c>
       <c r="B95" t="n">
-        <v>7596.0</v>
+        <v>8692.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>17344.0</v>
+        <v>19423.0</v>
       </c>
       <c r="B96" t="n">
-        <v>7353.0</v>
+        <v>8663.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>12240.0</v>
+        <v>20809.0</v>
       </c>
       <c r="B97" t="n">
-        <v>7375.0</v>
+        <v>8457.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>13179.0</v>
+        <v>19644.0</v>
       </c>
       <c r="B98" t="n">
-        <v>7508.0</v>
+        <v>8488.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>13879.0</v>
+        <v>14193.0</v>
       </c>
       <c r="B99" t="n">
-        <v>7525.0</v>
+        <v>8352.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>11966.0</v>
+        <v>12946.0</v>
       </c>
       <c r="B100" t="n">
-        <v>6895.0</v>
+        <v>8387.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>11515.0</v>
+        <v>12504.0</v>
       </c>
       <c r="B101" t="n">
-        <v>6456.0</v>
+        <v>7768.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>11366.0</v>
+        <v>11875.0</v>
       </c>
       <c r="B102" t="n">
-        <v>6353.0</v>
+        <v>6638.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>10852.0</v>
+        <v>11653.0</v>
       </c>
       <c r="B103" t="n">
-        <v>5612.0</v>
+        <v>5904.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>9232.0</v>
+        <v>13974.0</v>
       </c>
       <c r="B104" t="n">
-        <v>5103.0</v>
+        <v>5526.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>8530.0</v>
+        <v>12316.0</v>
       </c>
       <c r="B105" t="n">
-        <v>5151.0</v>
+        <v>5166.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>11647.0</v>
+        <v>12561.0</v>
       </c>
       <c r="B106" t="n">
-        <v>4975.0</v>
+        <v>5217.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>10394.0</v>
+        <v>11170.0</v>
       </c>
       <c r="B107" t="n">
-        <v>4762.0</v>
+        <v>5269.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>10678.0</v>
+        <v>11690.0</v>
       </c>
       <c r="B108" t="n">
-        <v>4701.0</v>
+        <v>5239.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>11022.0</v>
+        <v>12567.0</v>
       </c>
       <c r="B109" t="n">
-        <v>4826.0</v>
+        <v>5127.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>11588.0</v>
+        <v>12796.0</v>
       </c>
       <c r="B110" t="n">
-        <v>4696.0</v>
+        <v>5038.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>9681.0</v>
+        <v>13666.0</v>
       </c>
       <c r="B111" t="n">
-        <v>4776.0</v>
+        <v>5298.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>9218.0</v>
+        <v>12920.0</v>
       </c>
       <c r="B112" t="n">
-        <v>5082.0</v>
+        <v>5478.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>12841.0</v>
+        <v>14166.0</v>
       </c>
       <c r="B113" t="n">
-        <v>5313.0</v>
+        <v>5672.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>11968.0</v>
+        <v>12754.0</v>
       </c>
       <c r="B114" t="n">
-        <v>5020.0</v>
+        <v>5678.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>12133.0</v>
+        <v>13209.0</v>
       </c>
       <c r="B115" t="n">
-        <v>5090.0</v>
+        <v>5562.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>12869.0</v>
+        <v>13812.0</v>
       </c>
       <c r="B116" t="n">
-        <v>5127.0</v>
+        <v>5682.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>13483.0</v>
+        <v>14089.0</v>
       </c>
       <c r="B117" t="n">
-        <v>5123.0</v>
+        <v>5716.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>11730.0</v>
+        <v>15018.0</v>
       </c>
       <c r="B118" t="n">
-        <v>5386.0</v>
+        <v>5856.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>10813.0</v>
+        <v>14693.0</v>
       </c>
       <c r="B119" t="n">
-        <v>5989.0</v>
+        <v>6088.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>15475.0</v>
+        <v>15227.0</v>
       </c>
       <c r="B120" t="n">
-        <v>6241.0</v>
+        <v>6187.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>13865.0</v>
+        <v>13725.0</v>
       </c>
       <c r="B121" t="n">
-        <v>6040.0</v>
+        <v>6203.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>14789.0</v>
+        <v>14443.0</v>
       </c>
       <c r="B122" t="n">
-        <v>5917.0</v>
+        <v>6387.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>15604.0</v>
+        <v>14927.0</v>
       </c>
       <c r="B123" t="n">
-        <v>6209.0</v>
+        <v>6201.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>16500.0</v>
+        <v>15325.0</v>
       </c>
       <c r="B124" t="n">
-        <v>6371.0</v>
+        <v>6418.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>14551.0</v>
+        <v>15884.0</v>
       </c>
       <c r="B125" t="n">
-        <v>6631.0</v>
+        <v>6453.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>13076.0</v>
+        <v>15842.0</v>
       </c>
       <c r="B126" t="n">
-        <v>7233.0</v>
+        <v>6505.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>18653.0</v>
+        <v>16925.0</v>
       </c>
       <c r="B127" t="n">
-        <v>7507.0</v>
+        <v>6859.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>17223.0</v>
+        <v>15118.0</v>
       </c>
       <c r="B128" t="n">
-        <v>7423.0</v>
+        <v>6653.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>18248.0</v>
+        <v>15678.0</v>
       </c>
       <c r="B129" t="n">
-        <v>7658.0</v>
+        <v>6969.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>19291.0</v>
+        <v>16494.0</v>
       </c>
       <c r="B130" t="n">
-        <v>7719.0</v>
+        <v>6869.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>20585.0</v>
+        <v>16807.0</v>
       </c>
       <c r="B131" t="n">
-        <v>7831.0</v>
+        <v>6941.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>17982.0</v>
+        <v>17284.0</v>
       </c>
       <c r="B132" t="n">
-        <v>8629.0</v>
+        <v>6935.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>16499.0</v>
+        <v>17441.0</v>
       </c>
       <c r="B133" t="n">
-        <v>9034.0</v>
+        <v>7325.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>22756.0</v>
+        <v>18527.0</v>
       </c>
       <c r="B134" t="n">
-        <v>9316.0</v>
+        <v>7604.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>20636.0</v>
+        <v>16614.0</v>
       </c>
       <c r="B135" t="n">
-        <v>9140.0</v>
+        <v>7508.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>21733.0</v>
+        <v>17659.0</v>
       </c>
       <c r="B136" t="n">
-        <v>9214.0</v>
+        <v>7497.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>23069.0</v>
+        <v>18088.0</v>
       </c>
       <c r="B137" t="n">
-        <v>9555.0</v>
+        <v>7713.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>24576.0</v>
+        <v>18477.0</v>
       </c>
       <c r="B138" t="n">
-        <v>9473.0</v>
+        <v>7587.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>21718.0</v>
+        <v>19245.0</v>
       </c>
       <c r="B139" t="n">
-        <v>10367.0</v>
+        <v>7890.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>19299.0</v>
+        <v>19546.0</v>
       </c>
       <c r="B140" t="n">
-        <v>11254.0</v>
+        <v>8390.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>26325.0</v>
+        <v>20072.0</v>
       </c>
       <c r="B141" t="n">
-        <v>11085.0</v>
+        <v>8303.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>23840.0</v>
+        <v>18348.0</v>
       </c>
       <c r="B142" t="n">
-        <v>11103.0</v>
+        <v>8389.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>25128.0</v>
+        <v>18947.0</v>
       </c>
       <c r="B143" t="n">
-        <v>10881.0</v>
+        <v>8511.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>26345.0</v>
+        <v>19657.0</v>
       </c>
       <c r="B144" t="n">
-        <v>10867.0</v>
+        <v>8528.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>28178.0</v>
+        <v>20362.0</v>
       </c>
       <c r="B145" t="n">
-        <v>11239.0</v>
+        <v>8540.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>24453.0</v>
+        <v>21719.0</v>
       </c>
       <c r="B146" t="n">
-        <v>12087.0</v>
+        <v>8786.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>21922.0</v>
+        <v>21296.0</v>
       </c>
       <c r="B147" t="n">
-        <v>13084.0</v>
+        <v>8984.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>29189.0</v>
+        <v>21594.0</v>
       </c>
       <c r="B148" t="n">
-        <v>12772.0</v>
+        <v>9275.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>25940.0</v>
+        <v>19952.0</v>
       </c>
       <c r="B149" t="n">
-        <v>12402.0</v>
+        <v>9321.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>22105.0</v>
+        <v>15399.0</v>
       </c>
       <c r="B150" t="n">
-        <v>12112.0</v>
+        <v>9330.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>22419.0</v>
+        <v>15452.0</v>
       </c>
       <c r="B151" t="n">
-        <v>11785.0</v>
+        <v>9175.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>21880.0</v>
+        <v>15328.0</v>
       </c>
       <c r="B152" t="n">
-        <v>11283.0</v>
+        <v>8836.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>17245.0</v>
+        <v>20030.0</v>
       </c>
       <c r="B153" t="n">
-        <v>11337.0</v>
+        <v>8247.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>16703.0</v>
+        <v>17532.0</v>
       </c>
       <c r="B154" t="n">
-        <v>10841.0</v>
+        <v>7945.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>13361.0</v>
+        <v>15015.0</v>
       </c>
       <c r="B155" t="n">
-        <v>10023.0</v>
+        <v>7825.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>10660.0</v>
+        <v>12464.0</v>
       </c>
       <c r="B156" t="n">
-        <v>8673.0</v>
+        <v>7445.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>14200.0</v>
+        <v>14777.0</v>
       </c>
       <c r="B157" t="n">
-        <v>7312.0</v>
+        <v>6932.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>12130.0</v>
+        <v>12896.0</v>
       </c>
       <c r="B158" t="n">
-        <v>6478.0</v>
+        <v>6273.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>10452.0</v>
+        <v>10273.0</v>
       </c>
       <c r="B159" t="n">
-        <v>6075.0</v>
+        <v>6357.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>9146.0</v>
+        <v>11294.0</v>
       </c>
       <c r="B160" t="n">
-        <v>5738.0</v>
+        <v>6136.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>9102.0</v>
+        <v>11069.0</v>
       </c>
       <c r="B161" t="n">
-        <v>5782.0</v>
+        <v>5936.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>11244.0</v>
+        <v>11551.0</v>
       </c>
       <c r="B162" t="n">
-        <v>5758.0</v>
+        <v>5814.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>12177.0</v>
+        <v>13714.0</v>
       </c>
       <c r="B163" t="n">
-        <v>5622.0</v>
+        <v>5633.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>12008.0</v>
+        <v>13179.0</v>
       </c>
       <c r="B164" t="n">
-        <v>5189.0</v>
+        <v>5395.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>12838.0</v>
+        <v>13892.0</v>
       </c>
       <c r="B165" t="n">
-        <v>4655.0</v>
+        <v>5405.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>13655.0</v>
+        <v>14860.0</v>
       </c>
       <c r="B166" t="n">
-        <v>4784.0</v>
+        <v>5602.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>12121.0</v>
+        <v>17115.0</v>
       </c>
       <c r="B167" t="n">
-        <v>5637.0</v>
+        <v>6026.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>11510.0</v>
+        <v>15856.0</v>
       </c>
       <c r="B168" t="n">
-        <v>6053.0</v>
+        <v>6556.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>16575.0</v>
+        <v>17976.0</v>
       </c>
       <c r="B169" t="n">
-        <v>6349.0</v>
+        <v>7160.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>15046.0</v>
+        <v>17157.0</v>
       </c>
       <c r="B170" t="n">
-        <v>6183.0</v>
+        <v>7594.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>16308.0</v>
+        <v>17743.0</v>
       </c>
       <c r="B171" t="n">
-        <v>6340.0</v>
+        <v>7576.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>17283.0</v>
+        <v>18574.0</v>
       </c>
       <c r="B172" t="n">
-        <v>6423.0</v>
+        <v>7833.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>18768.0</v>
+        <v>19582.0</v>
       </c>
       <c r="B173" t="n">
-        <v>6899.0</v>
+        <v>8464.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>16944.0</v>
+        <v>22384.0</v>
       </c>
       <c r="B174" t="n">
-        <v>7667.0</v>
+        <v>8683.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>15602.0</v>
+        <v>22992.0</v>
       </c>
       <c r="B175" t="n">
-        <v>8461.0</v>
+        <v>9085.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>21781.0</v>
+        <v>22031.0</v>
       </c>
       <c r="B176" t="n">
-        <v>8570.0</v>
+        <v>9677.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>19837.0</v>
+        <v>20702.0</v>
       </c>
       <c r="B177" t="n">
-        <v>8340.0</v>
+        <v>10063.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>21360.0</v>
+        <v>22169.0</v>
       </c>
       <c r="B178" t="n">
-        <v>8657.0</v>
+        <v>10019.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>22145.0</v>
+        <v>23129.0</v>
       </c>
       <c r="B179" t="n">
-        <v>8693.0</v>
+        <v>10024.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>24261.0</v>
+        <v>24583.0</v>
       </c>
       <c r="B180" t="n">
-        <v>9175.0</v>
+        <v>10683.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>21900.0</v>
+        <v>27768.0</v>
       </c>
       <c r="B181" t="n">
-        <v>10224.0</v>
+        <v>11210.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>19842.0</v>
+        <v>28870.0</v>
       </c>
       <c r="B182" t="n">
-        <v>11024.0</v>
+        <v>11746.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>27251.0</v>
+        <v>27095.0</v>
       </c>
       <c r="B183" t="n">
-        <v>10994.0</v>
+        <v>12200.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>24488.0</v>
+        <v>25777.0</v>
       </c>
       <c r="B184" t="n">
-        <v>11040.0</v>
+        <v>12576.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>26180.0</v>
+        <v>27039.0</v>
       </c>
       <c r="B185" t="n">
-        <v>10733.0</v>
+        <v>12519.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>27317.0</v>
+        <v>27973.0</v>
       </c>
       <c r="B186" t="n">
-        <v>10824.0</v>
+        <v>12693.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>29550.0</v>
+        <v>29241.0</v>
       </c>
       <c r="B187" t="n">
-        <v>11693.0</v>
+        <v>13379.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>26247.0</v>
+        <v>33598.0</v>
       </c>
       <c r="B188" t="n">
-        <v>12515.0</v>
+        <v>13783.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>23454.0</v>
+        <v>34682.0</v>
       </c>
       <c r="B189" t="n">
-        <v>13505.0</v>
+        <v>14285.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>31531.0</v>
+        <v>30870.0</v>
       </c>
       <c r="B190" t="n">
-        <v>13336.0</v>
+        <v>14610.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>27954.0</v>
+        <v>28460.0</v>
       </c>
       <c r="B191" t="n">
-        <v>13007.0</v>
+        <v>15088.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>29468.0</v>
+        <v>30406.0</v>
       </c>
       <c r="B192" t="n">
-        <v>12891.0</v>
+        <v>14743.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>30634.0</v>
+        <v>30731.0</v>
       </c>
       <c r="B193" t="n">
-        <v>12504.0</v>
+        <v>14778.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>32721.0</v>
+        <v>31397.0</v>
       </c>
       <c r="B194" t="n">
-        <v>13137.0</v>
+        <v>14924.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>28889.0</v>
+        <v>35939.0</v>
       </c>
       <c r="B195" t="n">
-        <v>14596.0</v>
+        <v>15570.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>25693.0</v>
+        <v>36881.0</v>
       </c>
       <c r="B196" t="n">
-        <v>15111.0</v>
+        <v>15384.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>33572.0</v>
+        <v>31813.0</v>
       </c>
       <c r="B197" t="n">
-        <v>14713.0</v>
+        <v>15686.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>29578.0</v>
+        <v>29114.0</v>
       </c>
       <c r="B198" t="n">
-        <v>14179.0</v>
+        <v>16017.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>30659.0</v>
+        <v>30704.0</v>
       </c>
       <c r="B199" t="n">
-        <v>13921.0</v>
+        <v>15546.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>31108.0</v>
+        <v>30776.0</v>
       </c>
       <c r="B200" t="n">
-        <v>13461.0</v>
+        <v>15056.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>33257.0</v>
+        <v>30984.0</v>
       </c>
       <c r="B201" t="n">
-        <v>14236.0</v>
+        <v>15357.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>28569.0</v>
+        <v>35512.0</v>
       </c>
       <c r="B202" t="n">
-        <v>14801.0</v>
+        <v>15697.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>26024.0</v>
+        <v>36589.0</v>
       </c>
       <c r="B203" t="n">
-        <v>15676.0</v>
+        <v>15428.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>32743.0</v>
+        <v>30301.0</v>
       </c>
       <c r="B204" t="n">
-        <v>14801.0</v>
+        <v>15704.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>28390.0</v>
+        <v>27947.0</v>
       </c>
       <c r="B205" t="n">
-        <v>14176.0</v>
+        <v>15761.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>29039.0</v>
+        <v>28293.0</v>
       </c>
       <c r="B206" t="n">
-        <v>13708.0</v>
+        <v>14994.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>20988.0</v>
+        <v>31677.0</v>
       </c>
       <c r="B207" t="n">
-        <v>13175.0</v>
+        <v>14329.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>29992.0</v>
+        <v>29196.0</v>
       </c>
       <c r="B208" t="n">
-        <v>12786.0</v>
+        <v>14185.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>22341.0</v>
+        <v>27345.0</v>
       </c>
       <c r="B209" t="n">
-        <v>12908.0</v>
+        <v>14564.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>19958.0</v>
+        <v>27183.0</v>
       </c>
       <c r="B210" t="n">
-        <v>13417.0</v>
+        <v>13865.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>25702.0</v>
+        <v>25743.0</v>
       </c>
       <c r="B211" t="n">
-        <v>12191.0</v>
+        <v>12900.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>22097.0</v>
+        <v>23120.0</v>
       </c>
       <c r="B212" t="n">
-        <v>11013.0</v>
+        <v>12900.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>22826.0</v>
+        <v>24190.0</v>
       </c>
       <c r="B213" t="n">
-        <v>10751.0</v>
+        <v>12480.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>23571.0</v>
+        <v>24246.0</v>
       </c>
       <c r="B214" t="n">
-        <v>10379.0</v>
+        <v>12126.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>24309.0</v>
+        <v>24852.0</v>
       </c>
       <c r="B215" t="n">
-        <v>10744.0</v>
+        <v>12328.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>21273.0</v>
+        <v>27884.0</v>
       </c>
       <c r="B216" t="n">
-        <v>11426.0</v>
+        <v>12212.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>19424.0</v>
+        <v>28254.0</v>
       </c>
       <c r="B217" t="n">
-        <v>11534.0</v>
+        <v>12283.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>25118.0</v>
+        <v>24456.0</v>
       </c>
       <c r="B218" t="n">
-        <v>11223.0</v>
+        <v>12355.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>22245.0</v>
+        <v>22332.0</v>
       </c>
       <c r="B219" t="n">
-        <v>10605.0</v>
+        <v>12536.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>15640.0</v>
+        <v>24132.0</v>
       </c>
       <c r="B220" t="n">
-        <v>10247.0</v>
+        <v>11808.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>22064.0</v>
+        <v>22759.0</v>
       </c>
       <c r="B221" t="n">
-        <v>9416.0</v>
+        <v>10964.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>20093.0</v>
+        <v>20821.0</v>
       </c>
       <c r="B222" t="n">
-        <v>9347.0</v>
+        <v>10884.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>17089.0</v>
+        <v>22301.0</v>
       </c>
       <c r="B223" t="n">
-        <v>9998.0</v>
+        <v>10996.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>14989.0</v>
+        <v>21920.0</v>
       </c>
       <c r="B224" t="n">
-        <v>9764.0</v>
+        <v>10643.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>20337.0</v>
+        <v>20847.0</v>
       </c>
       <c r="B225" t="n">
-        <v>9078.0</v>
+        <v>10266.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>18498.0</v>
+        <v>19367.0</v>
       </c>
       <c r="B226" t="n">
-        <v>8721.0</v>
+        <v>10468.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>18840.0</v>
+        <v>19677.0</v>
       </c>
       <c r="B227" t="n">
-        <v>8698.0</v>
+        <v>9865.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>19112.0</v>
+        <v>19733.0</v>
       </c>
       <c r="B228" t="n">
-        <v>8352.0</v>
+        <v>9755.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>19951.0</v>
+        <v>19878.0</v>
       </c>
       <c r="B229" t="n">
-        <v>8304.0</v>
+        <v>9680.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>17071.0</v>
+        <v>22329.0</v>
       </c>
       <c r="B230" t="n">
-        <v>8990.0</v>
+        <v>9872.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>15786.0</v>
+        <v>22434.0</v>
       </c>
       <c r="B231" t="n">
-        <v>9208.0</v>
+        <v>9791.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>20727.0</v>
+        <v>19824.0</v>
       </c>
       <c r="B232" t="n">
-        <v>9372.0</v>
+        <v>9661.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>18648.0</v>
+        <v>18086.0</v>
       </c>
       <c r="B233" t="n">
-        <v>8832.0</v>
+        <v>9926.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>14971.0</v>
+        <v>14215.0</v>
       </c>
       <c r="B234" t="n">
-        <v>8403.0</v>
+        <v>9267.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>14995.0</v>
+        <v>13784.0</v>
       </c>
       <c r="B235" t="n">
-        <v>7795.0</v>
+        <v>8526.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>14641.0</v>
+        <v>13153.0</v>
       </c>
       <c r="B236" t="n">
-        <v>7774.0</v>
+        <v>8259.0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>11838.0</v>
+        <v>17487.0</v>
       </c>
       <c r="B237" t="n">
-        <v>7957.0</v>
+        <v>7699.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>11817.0</v>
+        <v>15243.0</v>
       </c>
       <c r="B238" t="n">
-        <v>7837.0</v>
+        <v>7387.0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>12634.0</v>
+        <v>10951.0</v>
       </c>
       <c r="B239" t="n">
-        <v>7188.0</v>
+        <v>6855.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>10937.0</v>
+        <v>9538.0</v>
       </c>
       <c r="B240" t="n">
-        <v>6427.0</v>
+        <v>6465.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>10205.0</v>
+        <v>9174.0</v>
       </c>
       <c r="B241" t="n">
-        <v>5645.0</v>
+        <v>5743.0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>9844.0</v>
+        <v>8855.0</v>
       </c>
       <c r="B242" t="n">
-        <v>5298.0</v>
+        <v>5372.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>9760.0</v>
+        <v>8753.0</v>
       </c>
       <c r="B243" t="n">
-        <v>5226.0</v>
+        <v>5039.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>8238.0</v>
+        <v>10758.0</v>
       </c>
       <c r="B244" t="n">
-        <v>5386.0</v>
+        <v>4888.0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>7967.0</v>
+        <v>9767.0</v>
       </c>
       <c r="B245" t="n">
-        <v>5077.0</v>
+        <v>4565.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>10707.0</v>
+        <v>9297.0</v>
       </c>
       <c r="B246" t="n">
-        <v>4864.0</v>
+        <v>4257.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>9716.0</v>
+        <v>8517.0</v>
       </c>
       <c r="B247" t="n">
-        <v>4476.0</v>
+        <v>4254.0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>9461.0</v>
+        <v>8828.0</v>
       </c>
       <c r="B248" t="n">
-        <v>4273.0</v>
+        <v>4001.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>10035.0</v>
+        <v>8898.0</v>
       </c>
       <c r="B249" t="n">
-        <v>4186.0</v>
+        <v>4014.0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>10297.0</v>
+        <v>9302.0</v>
       </c>
       <c r="B250" t="n">
-        <v>4200.0</v>
+        <v>4210.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>8722.0</v>
+        <v>10468.0</v>
       </c>
       <c r="B251" t="n">
-        <v>4555.0</v>
+        <v>4301.0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>8352.0</v>
+        <v>9770.0</v>
       </c>
       <c r="B252" t="n">
-        <v>4874.0</v>
+        <v>4352.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>11652.0</v>
+        <v>9994.0</v>
       </c>
       <c r="B253" t="n">
-        <v>4744.0</v>
+        <v>4151.0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>10703.0</v>
+        <v>9609.0</v>
       </c>
       <c r="B254" t="n">
-        <v>4514.0</v>
+        <v>4330.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>10599.0</v>
+        <v>9707.0</v>
       </c>
       <c r="B255" t="n">
-        <v>4616.0</v>
+        <v>4387.0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>10999.0</v>
+        <v>10077.0</v>
       </c>
       <c r="B256" t="n">
-        <v>4418.0</v>
+        <v>4256.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>11368.0</v>
+        <v>10130.0</v>
       </c>
       <c r="B257" t="n">
-        <v>4580.0</v>
+        <v>4461.0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>9644.0</v>
+        <v>11362.0</v>
       </c>
       <c r="B258" t="n">
-        <v>4841.0</v>
+        <v>4498.0</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>9102.0</v>
+        <v>10992.0</v>
       </c>
       <c r="B259" t="n">
-        <v>5314.0</v>
+        <v>4731.0</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>12522.0</v>
+        <v>11105.0</v>
       </c>
       <c r="B260" t="n">
-        <v>5276.0</v>
+        <v>4711.0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>11689.0</v>
+        <v>10330.0</v>
       </c>
       <c r="B261" t="n">
-        <v>5084.0</v>
+        <v>4826.0</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>11436.0</v>
+        <v>10538.0</v>
       </c>
       <c r="B262" t="n">
-        <v>4860.0</v>
+        <v>4664.0</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>11583.0</v>
+        <v>10868.0</v>
       </c>
       <c r="B263" t="n">
-        <v>4845.0</v>
+        <v>4736.0</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>12100.0</v>
+        <v>10901.0</v>
       </c>
       <c r="B264" t="n">
-        <v>4964.0</v>
+        <v>4791.0</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>10321.0</v>
+        <v>11853.0</v>
       </c>
       <c r="B265" t="n">
-        <v>5349.0</v>
+        <v>4948.0</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>9355.0</v>
+        <v>11844.0</v>
       </c>
       <c r="B266" t="n">
-        <v>5626.0</v>
+        <v>5097.0</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>13071.0</v>
+        <v>11757.0</v>
       </c>
       <c r="B267" t="n">
-        <v>5543.0</v>
+        <v>5078.0</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>12112.0</v>
+        <v>11377.0</v>
       </c>
       <c r="B268" t="n">
-        <v>5423.0</v>
+        <v>5099.0</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>12055.0</v>
+        <v>11133.0</v>
       </c>
       <c r="B269" t="n">
-        <v>5110.0</v>
+        <v>5096.0</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>12113.0</v>
+        <v>11304.0</v>
       </c>
       <c r="B270" t="n">
-        <v>5224.0</v>
+        <v>5163.0</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>12426.0</v>
+        <v>11563.0</v>
       </c>
       <c r="B271" t="n">
-        <v>5191.0</v>
+        <v>5115.0</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>10667.0</v>
+        <v>12259.0</v>
       </c>
       <c r="B272" t="n">
-        <v>5576.0</v>
+        <v>5274.0</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>9532.0</v>
+        <v>12383.0</v>
       </c>
       <c r="B273" t="n">
-        <v>5759.0</v>
+        <v>5407.0</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>9197.0</v>
+        <v>11336.0</v>
       </c>
       <c r="B274" t="n">
-        <v>5731.0</v>
+        <v>5275.0</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>12357.0</v>
+        <v>11541.0</v>
       </c>
       <c r="B275" t="n">
-        <v>5443.0</v>
+        <v>5109.0</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>10697.0</v>
+        <v>10587.0</v>
       </c>
       <c r="B276" t="n">
-        <v>5008.0</v>
+        <v>5230.0</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>10513.0</v>
+        <v>10589.0</v>
       </c>
       <c r="B277" t="n">
-        <v>4933.0</v>
+        <v>4992.0</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>10753.0</v>
+        <v>10926.0</v>
       </c>
       <c r="B278" t="n">
-        <v>4744.0</v>
+        <v>4907.0</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>8970.0</v>
+        <v>11127.0</v>
       </c>
       <c r="B279" t="n">
-        <v>4628.0</v>
+        <v>5081.0</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>8059.0</v>
+        <v>10987.0</v>
       </c>
       <c r="B280" t="n">
-        <v>4872.0</v>
+        <v>5065.0</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>11765.0</v>
+        <v>11827.0</v>
       </c>
       <c r="B281" t="n">
-        <v>5005.0</v>
+        <v>5101.0</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>7475.0</v>
+        <v>10325.0</v>
       </c>
       <c r="B282" t="n">
-        <v>4920.0</v>
+        <v>4979.0</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>10617.0</v>
+        <v>11506.0</v>
       </c>
       <c r="B283" t="n">
-        <v>4750.0</v>
+        <v>5033.0</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>9881.0</v>
+        <v>10441.0</v>
       </c>
       <c r="B284" t="n">
-        <v>4414.0</v>
+        <v>4788.0</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>9963.0</v>
+        <v>10875.0</v>
       </c>
       <c r="B285" t="n">
-        <v>4235.0</v>
+        <v>4906.0</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>8450.0</v>
+        <v>10994.0</v>
       </c>
       <c r="B286" t="n">
-        <v>4352.0</v>
+        <v>4821.0</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>7516.0</v>
+        <v>10756.0</v>
       </c>
       <c r="B287" t="n">
-        <v>4513.0</v>
+        <v>5008.0</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>10819.0</v>
+        <v>11785.0</v>
       </c>
       <c r="B288" t="n">
-        <v>4585.0</v>
+        <v>4980.0</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>9966.0</v>
+        <v>10799.0</v>
       </c>
       <c r="B289" t="n">
-        <v>4378.0</v>
+        <v>4952.0</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>10119.0</v>
+        <v>10835.0</v>
       </c>
       <c r="B290" t="n">
-        <v>4456.0</v>
+        <v>5004.0</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>10290.0</v>
+        <v>11273.0</v>
       </c>
       <c r="B291" t="n">
-        <v>4437.0</v>
+        <v>4852.0</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>10731.0</v>
+        <v>11634.0</v>
       </c>
       <c r="B292" t="n">
-        <v>4560.0</v>
+        <v>4925.0</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>8984.0</v>
+        <v>12414.0</v>
       </c>
       <c r="B293" t="n">
-        <v>4478.0</v>
+        <v>5060.0</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>8387.0</v>
+        <v>12128.0</v>
       </c>
       <c r="B294" t="n">
-        <v>4690.0</v>
+        <v>5092.0</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>11515.0</v>
+        <v>12261.0</v>
       </c>
       <c r="B295" t="n">
-        <v>4938.0</v>
+        <v>5235.0</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>10706.0</v>
+        <v>11165.0</v>
       </c>
       <c r="B296" t="n">
-        <v>4748.0</v>
+        <v>5266.0</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>10452.0</v>
+        <v>11553.0</v>
       </c>
       <c r="B297" t="n">
-        <v>4496.0</v>
+        <v>5419.0</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>10758.0</v>
+        <v>11804.0</v>
       </c>
       <c r="B298" t="n">
-        <v>4624.0</v>
+        <v>5164.0</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>11186.0</v>
+        <v>12018.0</v>
       </c>
       <c r="B299" t="n">
-        <v>4710.0</v>
+        <v>5160.0</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>9437.0</v>
+        <v>12822.0</v>
       </c>
       <c r="B300" t="n">
-        <v>4682.0</v>
+        <v>5306.0</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>8436.0</v>
+        <v>12875.0</v>
       </c>
       <c r="B301" t="n">
-        <v>5141.0</v>
+        <v>5447.0</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>11951.0</v>
+        <v>12620.0</v>
       </c>
       <c r="B302" t="n">
-        <v>5179.0</v>
+        <v>5425.0</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>10861.0</v>
+        <v>11526.0</v>
       </c>
       <c r="B303" t="n">
-        <v>4998.0</v>
+        <v>5480.0</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>10882.0</v>
+        <v>11826.0</v>
       </c>
       <c r="B304" t="n">
-        <v>4669.0</v>
+        <v>5475.0</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>9117.0</v>
+        <v>9422.0</v>
       </c>
       <c r="B305" t="n">
-        <v>4995.0</v>
+        <v>5574.0</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>9407.0</v>
+        <v>9353.0</v>
       </c>
       <c r="B306" t="n">
-        <v>4607.0</v>
+        <v>5279.0</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>7632.0</v>
+        <v>12546.0</v>
       </c>
       <c r="B307" t="n">
-        <v>4779.0</v>
+        <v>5136.0</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>7790.0</v>
+        <v>11096.0</v>
       </c>
       <c r="B308" t="n">
-        <v>4851.0</v>
+        <v>4945.0</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>8729.0</v>
+        <v>8521.0</v>
       </c>
       <c r="B309" t="n">
-        <v>4616.0</v>
+        <v>4737.0</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>7704.0</v>
+        <v>7720.0</v>
       </c>
       <c r="B310" t="n">
-        <v>4148.0</v>
+        <v>4763.0</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>7213.0</v>
+        <v>7488.0</v>
       </c>
       <c r="B311" t="n">
-        <v>3876.0</v>
+        <v>4424.0</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>7303.0</v>
+        <v>7356.0</v>
       </c>
       <c r="B312" t="n">
-        <v>3569.0</v>
+        <v>3914.0</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>7052.0</v>
+        <v>7166.0</v>
       </c>
       <c r="B313" t="n">
-        <v>3389.0</v>
+        <v>3744.0</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>5603.0</v>
+        <v>8538.0</v>
       </c>
       <c r="B314" t="n">
-        <v>3328.0</v>
+        <v>3548.0</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>5892.0</v>
+        <v>7829.0</v>
       </c>
       <c r="B315" t="n">
-        <v>3440.0</v>
+        <v>3365.0</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>5513.0</v>
+        <v>6872.0</v>
       </c>
       <c r="B316" t="n">
-        <v>3377.0</v>
+        <v>3318.0</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>6301.0</v>
+        <v>6138.0</v>
       </c>
       <c r="B317" t="n">
-        <v>3136.0</v>
+        <v>3278.0</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>5641.0</v>
+        <v>5457.0</v>
       </c>
       <c r="B318" t="n">
-        <v>2858.0</v>
+        <v>3166.0</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>5457.0</v>
+        <v>5533.0</v>
       </c>
       <c r="B319" t="n">
-        <v>2779.0</v>
+        <v>2944.0</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>5550.0</v>
+        <v>5667.0</v>
       </c>
       <c r="B320" t="n">
-        <v>2545.0</v>
+        <v>2795.0</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>4343.0</v>
+        <v>5945.0</v>
       </c>
       <c r="B321" t="n">
-        <v>2486.0</v>
+        <v>2485.0</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>4699.0</v>
+        <v>5827.0</v>
       </c>
       <c r="B322" t="n">
-        <v>2575.0</v>
+        <v>2601.0</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>5740.0</v>
+        <v>5707.0</v>
       </c>
       <c r="B323" t="n">
-        <v>2486.0</v>
+        <v>2556.0</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>5277.0</v>
+        <v>4877.0</v>
       </c>
       <c r="B324" t="n">
-        <v>2396.0</v>
+        <v>2602.0</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>5490.0</v>
+        <v>5265.0</v>
       </c>
       <c r="B325" t="n">
-        <v>2358.0</v>
+        <v>2569.0</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>5539.0</v>
+        <v>4978.0</v>
       </c>
       <c r="B326" t="n">
-        <v>2347.0</v>
+        <v>2342.0</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>5463.0</v>
+        <v>5192.0</v>
       </c>
       <c r="B327" t="n">
-        <v>2253.0</v>
+        <v>2278.0</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>4446.0</v>
+        <v>5789.0</v>
       </c>
       <c r="B328" t="n">
-        <v>2401.0</v>
+        <v>2338.0</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>4842.0</v>
+        <v>5556.0</v>
       </c>
       <c r="B329" t="n">
-        <v>2537.0</v>
+        <v>2293.0</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>5780.0</v>
+        <v>5101.0</v>
       </c>
       <c r="B330" t="n">
-        <v>2532.0</v>
+        <v>2308.0</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>5184.0</v>
+        <v>4579.0</v>
       </c>
       <c r="B331" t="n">
         <v>2288.0</v>
@@ -2994,274 +2994,274 @@
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>5231.0</v>
+        <v>4690.0</v>
       </c>
       <c r="B332" t="n">
-        <v>2305.0</v>
+        <v>2236.0</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>5433.0</v>
+        <v>4799.0</v>
       </c>
       <c r="B333" t="n">
-        <v>2400.0</v>
+        <v>2154.0</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>5437.0</v>
+        <v>4627.0</v>
       </c>
       <c r="B334" t="n">
-        <v>2286.0</v>
+        <v>2005.0</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>4675.0</v>
+        <v>5370.0</v>
       </c>
       <c r="B335" t="n">
-        <v>2295.0</v>
+        <v>1981.0</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>4618.0</v>
+        <v>5125.0</v>
       </c>
       <c r="B336" t="n">
-        <v>2392.0</v>
+        <v>2069.0</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>4319.0</v>
+        <v>3671.0</v>
       </c>
       <c r="B337" t="n">
-        <v>2459.0</v>
+        <v>2071.0</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>3930.0</v>
+        <v>3532.0</v>
       </c>
       <c r="B338" t="n">
-        <v>2283.0</v>
+        <v>2072.0</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>3775.0</v>
+        <v>3365.0</v>
       </c>
       <c r="B339" t="n">
-        <v>2183.0</v>
+        <v>2007.0</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>3519.0</v>
+        <v>3081.0</v>
       </c>
       <c r="B340" t="n">
-        <v>1962.0</v>
+        <v>1726.0</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>3370.0</v>
+        <v>2996.0</v>
       </c>
       <c r="B341" t="n">
-        <v>1822.0</v>
+        <v>1491.0</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>3160.0</v>
+        <v>3483.0</v>
       </c>
       <c r="B342" t="n">
-        <v>1609.0</v>
+        <v>1466.0</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>2940.0</v>
+        <v>3184.0</v>
       </c>
       <c r="B343" t="n">
-        <v>1568.0</v>
+        <v>1351.0</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>2866.0</v>
+        <v>2532.0</v>
       </c>
       <c r="B344" t="n">
-        <v>1495.0</v>
+        <v>1252.0</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>2702.0</v>
+        <v>2427.0</v>
       </c>
       <c r="B345" t="n">
-        <v>1417.0</v>
+        <v>1269.0</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>2866.0</v>
+        <v>2392.0</v>
       </c>
       <c r="B346" t="n">
-        <v>1366.0</v>
+        <v>1222.0</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>2780.0</v>
+        <v>2350.0</v>
       </c>
       <c r="B347" t="n">
-        <v>1258.0</v>
+        <v>1084.0</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>2671.0</v>
+        <v>2370.0</v>
       </c>
       <c r="B348" t="n">
-        <v>1299.0</v>
+        <v>1107.0</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>2669.0</v>
+        <v>2805.0</v>
       </c>
       <c r="B349" t="n">
-        <v>1247.0</v>
+        <v>1007.0</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>2634.0</v>
+        <v>2582.0</v>
       </c>
       <c r="B350" t="n">
-        <v>1243.0</v>
+        <v>979.0</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>2575.0</v>
+        <v>2168.0</v>
       </c>
       <c r="B351" t="n">
-        <v>1143.0</v>
+        <v>1056.0</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>2540.0</v>
+        <v>2149.0</v>
       </c>
       <c r="B352" t="n">
-        <v>1117.0</v>
+        <v>952.0</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>2577.0</v>
+        <v>2134.0</v>
       </c>
       <c r="B353" t="n">
-        <v>1116.0</v>
+        <v>974.0</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>2502.0</v>
+        <v>2164.0</v>
       </c>
       <c r="B354" t="n">
-        <v>1126.0</v>
+        <v>952.0</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>2564.0</v>
+        <v>2116.0</v>
       </c>
       <c r="B355" t="n">
-        <v>1130.0</v>
+        <v>918.0</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>2584.0</v>
+        <v>2529.0</v>
       </c>
       <c r="B356" t="n">
-        <v>1129.0</v>
+        <v>889.0</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>2535.0</v>
+        <v>2469.0</v>
       </c>
       <c r="B357" t="n">
-        <v>1037.0</v>
+        <v>910.0</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>2454.0</v>
+        <v>2117.0</v>
       </c>
       <c r="B358" t="n">
-        <v>1114.0</v>
+        <v>871.0</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>2448.0</v>
+        <v>2147.0</v>
       </c>
       <c r="B359" t="n">
-        <v>1019.0</v>
+        <v>912.0</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>2487.0</v>
+        <v>2058.0</v>
       </c>
       <c r="B360" t="n">
-        <v>1047.0</v>
+        <v>896.0</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>2462.0</v>
+        <v>1999.0</v>
       </c>
       <c r="B361" t="n">
-        <v>1086.0</v>
+        <v>814.0</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>2387.0</v>
+        <v>1937.0</v>
       </c>
       <c r="B362" t="n">
-        <v>1031.0</v>
+        <v>778.0</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>2489.0</v>
+        <v>2152.0</v>
       </c>
       <c r="B363" t="n">
-        <v>1090.0</v>
+        <v>816.0</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>2565.0</v>
+        <v>2045.0</v>
       </c>
       <c r="B364" t="n">
-        <v>1011.0</v>
+        <v>908.0</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>2514.0</v>
+        <v>1782.0</v>
       </c>
       <c r="B365" t="n">
-        <v>1027.0</v>
+        <v>805.0</v>
       </c>
     </row>
   </sheetData>
